--- a/src/resources/test-data/input-data.xlsx
+++ b/src/resources/test-data/input-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17748" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="984">
   <si>
     <t>patientLastName</t>
   </si>
@@ -125,1026 +125,1134 @@
     <t>YPRssp91</t>
   </si>
   <si>
-    <t>YPRssp912</t>
+    <t>IBPA9797</t>
   </si>
   <si>
     <t>YPRssp95</t>
   </si>
   <si>
+    <t>GRPA9797</t>
+  </si>
+  <si>
+    <t>This is test note.</t>
+  </si>
+  <si>
+    <t>Cocher</t>
+  </si>
+  <si>
+    <t>Mirabella</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>96 Vernon Court</t>
+  </si>
+  <si>
+    <t>33679 Saint Paul Point</t>
+  </si>
+  <si>
+    <t>Lluidas Vale</t>
+  </si>
+  <si>
+    <t>icalderbank1@admin.ch</t>
+  </si>
+  <si>
+    <t>YPRssp92</t>
+  </si>
+  <si>
+    <t>IBPA9798</t>
+  </si>
+  <si>
     <t>YPRssp96</t>
   </si>
   <si>
-    <t>This is test note.</t>
-  </si>
-  <si>
-    <t>Cocher</t>
-  </si>
-  <si>
-    <t>Mirabella</t>
-  </si>
-  <si>
-    <t>Felicia</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>96 Vernon Court</t>
-  </si>
-  <si>
-    <t>33679 Saint Paul Point</t>
-  </si>
-  <si>
-    <t>Lluidas Vale</t>
-  </si>
-  <si>
-    <t>icalderbank1@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp92</t>
-  </si>
-  <si>
-    <t>YPRssp913</t>
+    <t>GRPA9798</t>
+  </si>
+  <si>
+    <t>Berkley</t>
+  </si>
+  <si>
+    <t>Fidelio</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>2158 Morning Trail</t>
+  </si>
+  <si>
+    <t>6104 Mcbride Way</t>
+  </si>
+  <si>
+    <t>Voskresenskoye</t>
+  </si>
+  <si>
+    <t>icalderbank2@admin.ch</t>
+  </si>
+  <si>
+    <t>YPRssp93</t>
+  </si>
+  <si>
+    <t>IBPA9799</t>
   </si>
   <si>
     <t>YPRssp97</t>
   </si>
   <si>
-    <t>Berkley</t>
-  </si>
-  <si>
-    <t>Fidelio</t>
-  </si>
-  <si>
-    <t>Berkeley</t>
-  </si>
-  <si>
-    <t>2158 Morning Trail</t>
-  </si>
-  <si>
-    <t>6104 Mcbride Way</t>
-  </si>
-  <si>
-    <t>Voskresenskoye</t>
-  </si>
-  <si>
-    <t>icalderbank2@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp93</t>
-  </si>
-  <si>
-    <t>YPRssp914</t>
+    <t>GRPA9799</t>
+  </si>
+  <si>
+    <t>Gatesman</t>
+  </si>
+  <si>
+    <t>Manon</t>
+  </si>
+  <si>
+    <t>Marlee</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>13 John Wall Way</t>
+  </si>
+  <si>
+    <t>543 Porter Alley</t>
+  </si>
+  <si>
+    <t>Jianchang</t>
+  </si>
+  <si>
+    <t>icalderbank3@admin.ch</t>
+  </si>
+  <si>
+    <t>YPRssp94</t>
+  </si>
+  <si>
+    <t>IBPA9800</t>
   </si>
   <si>
     <t>YPRssp98</t>
   </si>
   <si>
-    <t>Gatesman</t>
-  </si>
-  <si>
-    <t>Manon</t>
-  </si>
-  <si>
-    <t>Marlee</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>13 John Wall Way</t>
-  </si>
-  <si>
-    <t>543 Porter Alley</t>
-  </si>
-  <si>
-    <t>Jianchang</t>
-  </si>
-  <si>
-    <t>icalderbank3@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp94</t>
-  </si>
-  <si>
-    <t>YPRssp915</t>
+    <t>GRPA9800</t>
+  </si>
+  <si>
+    <t>Teacy</t>
+  </si>
+  <si>
+    <t>Gallard</t>
+  </si>
+  <si>
+    <t>Vinson</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>096 Norway Maple Court</t>
+  </si>
+  <si>
+    <t>06 Paget Park</t>
+  </si>
+  <si>
+    <t>Sulangan</t>
+  </si>
+  <si>
+    <t>icalderbank4@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9801</t>
   </si>
   <si>
     <t>YPRssp99</t>
   </si>
   <si>
-    <t>Teacy</t>
-  </si>
-  <si>
-    <t>Gallard</t>
-  </si>
-  <si>
-    <t>Vinson</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>096 Norway Maple Court</t>
-  </si>
-  <si>
-    <t>06 Paget Park</t>
-  </si>
-  <si>
-    <t>Sulangan</t>
-  </si>
-  <si>
-    <t>icalderbank4@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp916</t>
+    <t>GRPA9801</t>
+  </si>
+  <si>
+    <t>Tilt</t>
+  </si>
+  <si>
+    <t>Mariquilla</t>
+  </si>
+  <si>
+    <t>Demeter</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>30838 Lakewood Center</t>
+  </si>
+  <si>
+    <t>2831 Green Ridge Plaza</t>
+  </si>
+  <si>
+    <t>Oesena</t>
+  </si>
+  <si>
+    <t>icalderbank5@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9802</t>
   </si>
   <si>
     <t>YPRssp100</t>
   </si>
   <si>
-    <t>Tilt</t>
-  </si>
-  <si>
-    <t>Mariquilla</t>
-  </si>
-  <si>
-    <t>Demeter</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>30838 Lakewood Center</t>
-  </si>
-  <si>
-    <t>2831 Green Ridge Plaza</t>
-  </si>
-  <si>
-    <t>Oesena</t>
-  </si>
-  <si>
-    <t>icalderbank5@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp917</t>
+    <t>GRPA9802</t>
+  </si>
+  <si>
+    <t>Bunton</t>
+  </si>
+  <si>
+    <t>Dorolice</t>
+  </si>
+  <si>
+    <t>Mufinella</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>6 Springs Lane</t>
+  </si>
+  <si>
+    <t>265 Milwaukee Parkway</t>
+  </si>
+  <si>
+    <t>Boneng</t>
+  </si>
+  <si>
+    <t>icalderbank6@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9803</t>
   </si>
   <si>
     <t>YPRssp101</t>
   </si>
   <si>
-    <t>Bunton</t>
-  </si>
-  <si>
-    <t>Dorolice</t>
-  </si>
-  <si>
-    <t>Mufinella</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>6 Springs Lane</t>
-  </si>
-  <si>
-    <t>265 Milwaukee Parkway</t>
-  </si>
-  <si>
-    <t>Boneng</t>
-  </si>
-  <si>
-    <t>icalderbank6@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp918</t>
+    <t>GRPA9803</t>
+  </si>
+  <si>
+    <t>Grabbam</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Pebrook</t>
+  </si>
+  <si>
+    <t>6996 Eastlawn Pass</t>
+  </si>
+  <si>
+    <t>23 Ruskin Lane</t>
+  </si>
+  <si>
+    <t>New Glasgow</t>
+  </si>
+  <si>
+    <t>icalderbank7@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9804</t>
   </si>
   <si>
     <t>YPRssp102</t>
   </si>
   <si>
-    <t>Grabbam</t>
-  </si>
-  <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>Pebrook</t>
-  </si>
-  <si>
-    <t>6996 Eastlawn Pass</t>
-  </si>
-  <si>
-    <t>23 Ruskin Lane</t>
-  </si>
-  <si>
-    <t>New Glasgow</t>
-  </si>
-  <si>
-    <t>icalderbank7@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp919</t>
+    <t>GRPA9804</t>
+  </si>
+  <si>
+    <t>Lovemore</t>
+  </si>
+  <si>
+    <t>Claus</t>
+  </si>
+  <si>
+    <t>Ade</t>
+  </si>
+  <si>
+    <t>49911 Eagan Center</t>
+  </si>
+  <si>
+    <t>2 Clemons Trail</t>
+  </si>
+  <si>
+    <t>Boñgalon</t>
+  </si>
+  <si>
+    <t>icalderbank8@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9805</t>
   </si>
   <si>
     <t>YPRssp103</t>
   </si>
   <si>
-    <t>Lovemore</t>
-  </si>
-  <si>
-    <t>Claus</t>
-  </si>
-  <si>
-    <t>Ade</t>
-  </si>
-  <si>
-    <t>49911 Eagan Center</t>
-  </si>
-  <si>
-    <t>2 Clemons Trail</t>
-  </si>
-  <si>
-    <t>Boñgalon</t>
-  </si>
-  <si>
-    <t>icalderbank8@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp920</t>
+    <t>GRPA9805</t>
+  </si>
+  <si>
+    <t>Gwyer</t>
+  </si>
+  <si>
+    <t>Budd</t>
+  </si>
+  <si>
+    <t>Briant</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>06 Bobwhite Road</t>
+  </si>
+  <si>
+    <t>9 Rowland Trail</t>
+  </si>
+  <si>
+    <t>Apuri</t>
+  </si>
+  <si>
+    <t>icalderbank9@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9806</t>
   </si>
   <si>
     <t>YPRssp104</t>
   </si>
   <si>
-    <t>Gwyer</t>
-  </si>
-  <si>
-    <t>Budd</t>
-  </si>
-  <si>
-    <t>Briant</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>06 Bobwhite Road</t>
-  </si>
-  <si>
-    <t>9 Rowland Trail</t>
-  </si>
-  <si>
-    <t>Apuri</t>
-  </si>
-  <si>
-    <t>icalderbank9@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp921</t>
+    <t>GRPA9806</t>
+  </si>
+  <si>
+    <t>Grinyer</t>
+  </si>
+  <si>
+    <t>Jodi</t>
+  </si>
+  <si>
+    <t>Abbe</t>
+  </si>
+  <si>
+    <t>0454 Bunting Park</t>
+  </si>
+  <si>
+    <t>0 Kinsman Terrace</t>
+  </si>
+  <si>
+    <t>Tojeira</t>
+  </si>
+  <si>
+    <t>icalderbank10@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9807</t>
   </si>
   <si>
     <t>YPRssp105</t>
   </si>
   <si>
-    <t>Grinyer</t>
-  </si>
-  <si>
-    <t>Jodi</t>
-  </si>
-  <si>
-    <t>Abbe</t>
-  </si>
-  <si>
-    <t>0454 Bunting Park</t>
-  </si>
-  <si>
-    <t>0 Kinsman Terrace</t>
-  </si>
-  <si>
-    <t>Tojeira</t>
-  </si>
-  <si>
-    <t>icalderbank10@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp922</t>
+    <t>GRPA9807</t>
+  </si>
+  <si>
+    <t>Braddon</t>
+  </si>
+  <si>
+    <t>Maryl</t>
+  </si>
+  <si>
+    <t>Abigale</t>
+  </si>
+  <si>
+    <t>16 Forster Hill</t>
+  </si>
+  <si>
+    <t>30 Gulseth Point</t>
+  </si>
+  <si>
+    <t>Huating</t>
+  </si>
+  <si>
+    <t>icalderbank11@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9808</t>
   </si>
   <si>
     <t>YPRssp106</t>
   </si>
   <si>
-    <t>Braddon</t>
-  </si>
-  <si>
-    <t>Maryl</t>
-  </si>
-  <si>
-    <t>Abigale</t>
-  </si>
-  <si>
-    <t>16 Forster Hill</t>
-  </si>
-  <si>
-    <t>30 Gulseth Point</t>
-  </si>
-  <si>
-    <t>Huating</t>
-  </si>
-  <si>
-    <t>icalderbank11@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp923</t>
+    <t>GRPA9808</t>
+  </si>
+  <si>
+    <t>Gallihawk</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Renell</t>
+  </si>
+  <si>
+    <t>32144 Dorton Junction</t>
+  </si>
+  <si>
+    <t>8 Springview Junction</t>
+  </si>
+  <si>
+    <t>Quiaios</t>
+  </si>
+  <si>
+    <t>icalderbank12@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9809</t>
   </si>
   <si>
     <t>YPRssp107</t>
   </si>
   <si>
-    <t>Gallihawk</t>
-  </si>
-  <si>
-    <t>Walsh</t>
-  </si>
-  <si>
-    <t>Renell</t>
-  </si>
-  <si>
-    <t>32144 Dorton Junction</t>
-  </si>
-  <si>
-    <t>8 Springview Junction</t>
-  </si>
-  <si>
-    <t>Quiaios</t>
-  </si>
-  <si>
-    <t>icalderbank12@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp924</t>
+    <t>GRPA9809</t>
+  </si>
+  <si>
+    <t>Melloi</t>
+  </si>
+  <si>
+    <t>Onfroi</t>
+  </si>
+  <si>
+    <t>Haskel</t>
+  </si>
+  <si>
+    <t>48 Michigan Alley</t>
+  </si>
+  <si>
+    <t>69249 Center Circle</t>
+  </si>
+  <si>
+    <t>Monte Agudo</t>
+  </si>
+  <si>
+    <t>icalderbank13@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9810</t>
   </si>
   <si>
     <t>YPRssp108</t>
   </si>
   <si>
-    <t>Melloi</t>
-  </si>
-  <si>
-    <t>Onfroi</t>
-  </si>
-  <si>
-    <t>Haskel</t>
-  </si>
-  <si>
-    <t>48 Michigan Alley</t>
-  </si>
-  <si>
-    <t>69249 Center Circle</t>
-  </si>
-  <si>
-    <t>Monte Agudo</t>
-  </si>
-  <si>
-    <t>icalderbank13@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp925</t>
+    <t>GRPA9810</t>
+  </si>
+  <si>
+    <t>Rebbeck</t>
+  </si>
+  <si>
+    <t>Hyacinth</t>
+  </si>
+  <si>
+    <t>Oralie</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0 4th Junction</t>
+  </si>
+  <si>
+    <t>29588 Summer Ridge Drive</t>
+  </si>
+  <si>
+    <t>Skurup</t>
+  </si>
+  <si>
+    <t>icalderbank14@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9811</t>
   </si>
   <si>
     <t>YPRssp109</t>
   </si>
   <si>
-    <t>Rebbeck</t>
-  </si>
-  <si>
-    <t>Hyacinth</t>
-  </si>
-  <si>
-    <t>Oralie</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0 4th Junction</t>
-  </si>
-  <si>
-    <t>29588 Summer Ridge Drive</t>
-  </si>
-  <si>
-    <t>Skurup</t>
-  </si>
-  <si>
-    <t>icalderbank14@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp926</t>
+    <t>GRPA9811</t>
+  </si>
+  <si>
+    <t>Sterte</t>
+  </si>
+  <si>
+    <t>Layney</t>
+  </si>
+  <si>
+    <t>Liv</t>
+  </si>
+  <si>
+    <t>90 Harbort Circle</t>
+  </si>
+  <si>
+    <t>1 Iowa Parkway</t>
+  </si>
+  <si>
+    <t>Verkhneye Kazanishche</t>
+  </si>
+  <si>
+    <t>icalderbank15@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9812</t>
   </si>
   <si>
     <t>YPRssp110</t>
   </si>
   <si>
-    <t>Sterte</t>
-  </si>
-  <si>
-    <t>Layney</t>
-  </si>
-  <si>
-    <t>Liv</t>
-  </si>
-  <si>
-    <t>90 Harbort Circle</t>
-  </si>
-  <si>
-    <t>1 Iowa Parkway</t>
-  </si>
-  <si>
-    <t>Verkhneye Kazanishche</t>
-  </si>
-  <si>
-    <t>icalderbank15@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp927</t>
+    <t>GRPA9812</t>
+  </si>
+  <si>
+    <t>Goldie</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
+    <t>Lindsy</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>6951 Washington Place</t>
+  </si>
+  <si>
+    <t>2482 Judy Parkway</t>
+  </si>
+  <si>
+    <t>Działoszyce</t>
+  </si>
+  <si>
+    <t>icalderbank16@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9813</t>
   </si>
   <si>
     <t>YPRssp111</t>
   </si>
   <si>
-    <t>Goldie</t>
-  </si>
-  <si>
-    <t>Sheila</t>
-  </si>
-  <si>
-    <t>Lindsy</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>6951 Washington Place</t>
-  </si>
-  <si>
-    <t>2482 Judy Parkway</t>
-  </si>
-  <si>
-    <t>Działoszyce</t>
-  </si>
-  <si>
-    <t>icalderbank16@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp928</t>
+    <t>GRPA9813</t>
+  </si>
+  <si>
+    <t>Rookesby</t>
+  </si>
+  <si>
+    <t>Tamarra</t>
+  </si>
+  <si>
+    <t>Pepi</t>
+  </si>
+  <si>
+    <t>5 Schurz Pass</t>
+  </si>
+  <si>
+    <t>866 Delaware Center</t>
+  </si>
+  <si>
+    <t>Jiulongshan</t>
+  </si>
+  <si>
+    <t>icalderbank17@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9814</t>
   </si>
   <si>
     <t>YPRssp112</t>
   </si>
   <si>
-    <t>Rookesby</t>
-  </si>
-  <si>
-    <t>Tamarra</t>
-  </si>
-  <si>
-    <t>Pepi</t>
-  </si>
-  <si>
-    <t>5 Schurz Pass</t>
-  </si>
-  <si>
-    <t>866 Delaware Center</t>
-  </si>
-  <si>
-    <t>Jiulongshan</t>
-  </si>
-  <si>
-    <t>icalderbank17@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp929</t>
+    <t>GRPA9814</t>
+  </si>
+  <si>
+    <t>Mechi</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Saloma</t>
+  </si>
+  <si>
+    <t>98769 Westridge Pass</t>
+  </si>
+  <si>
+    <t>1 Tennessee Trail</t>
+  </si>
+  <si>
+    <t>Parada de Todeia</t>
+  </si>
+  <si>
+    <t>icalderbank18@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9815</t>
   </si>
   <si>
     <t>YPRssp113</t>
   </si>
   <si>
-    <t>Mechi</t>
-  </si>
-  <si>
-    <t>Debora</t>
-  </si>
-  <si>
-    <t>Saloma</t>
-  </si>
-  <si>
-    <t>98769 Westridge Pass</t>
-  </si>
-  <si>
-    <t>1 Tennessee Trail</t>
-  </si>
-  <si>
-    <t>Parada de Todeia</t>
-  </si>
-  <si>
-    <t>icalderbank18@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp930</t>
+    <t>GRPA9815</t>
+  </si>
+  <si>
+    <t>Neesham</t>
+  </si>
+  <si>
+    <t>Trescha</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>1722 Canary Avenue</t>
+  </si>
+  <si>
+    <t>84234 Schiller Court</t>
+  </si>
+  <si>
+    <t>Japeri</t>
+  </si>
+  <si>
+    <t>icalderbank19@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9816</t>
   </si>
   <si>
     <t>YPRssp114</t>
   </si>
   <si>
-    <t>Neesham</t>
-  </si>
-  <si>
-    <t>Trescha</t>
-  </si>
-  <si>
-    <t>Jenna</t>
-  </si>
-  <si>
-    <t>1722 Canary Avenue</t>
-  </si>
-  <si>
-    <t>84234 Schiller Court</t>
-  </si>
-  <si>
-    <t>Japeri</t>
-  </si>
-  <si>
-    <t>icalderbank19@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp931</t>
+    <t>GRPA9816</t>
+  </si>
+  <si>
+    <t>Grinnov</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Mic</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>87 Green Road</t>
+  </si>
+  <si>
+    <t>02471 Esch Court</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>icalderbank20@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9817</t>
   </si>
   <si>
     <t>YPRssp115</t>
   </si>
   <si>
-    <t>Grinnov</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Mic</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>87 Green Road</t>
-  </si>
-  <si>
-    <t>02471 Esch Court</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>icalderbank20@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp932</t>
+    <t>GRPA9817</t>
+  </si>
+  <si>
+    <t>Byrd</t>
+  </si>
+  <si>
+    <t>Richmound</t>
+  </si>
+  <si>
+    <t>13137 Oriole Lane</t>
+  </si>
+  <si>
+    <t>9590 Ridgeview Hill</t>
+  </si>
+  <si>
+    <t>Milówka</t>
+  </si>
+  <si>
+    <t>icalderbank21@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9818</t>
   </si>
   <si>
     <t>YPRssp116</t>
   </si>
   <si>
-    <t>Byrd</t>
-  </si>
-  <si>
-    <t>Richmound</t>
-  </si>
-  <si>
-    <t>13137 Oriole Lane</t>
-  </si>
-  <si>
-    <t>9590 Ridgeview Hill</t>
-  </si>
-  <si>
-    <t>Milówka</t>
-  </si>
-  <si>
-    <t>icalderbank21@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp933</t>
+    <t>GRPA9818</t>
+  </si>
+  <si>
+    <t>Trelevan</t>
+  </si>
+  <si>
+    <t>Orson</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>1 Elgar Avenue</t>
+  </si>
+  <si>
+    <t>953 Glacier Hill Plaza</t>
+  </si>
+  <si>
+    <t>Mizhuang</t>
+  </si>
+  <si>
+    <t>icalderbank22@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9819</t>
   </si>
   <si>
     <t>YPRssp117</t>
   </si>
   <si>
-    <t>Trelevan</t>
-  </si>
-  <si>
-    <t>Orson</t>
-  </si>
-  <si>
-    <t>Tucker</t>
-  </si>
-  <si>
-    <t>1 Elgar Avenue</t>
-  </si>
-  <si>
-    <t>953 Glacier Hill Plaza</t>
-  </si>
-  <si>
-    <t>Mizhuang</t>
-  </si>
-  <si>
-    <t>icalderbank22@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp934</t>
+    <t>GRPA9819</t>
+  </si>
+  <si>
+    <t>O'Kennavain</t>
+  </si>
+  <si>
+    <t>Ike</t>
+  </si>
+  <si>
+    <t>Gran</t>
+  </si>
+  <si>
+    <t>05492 Spohn Pass</t>
+  </si>
+  <si>
+    <t>797 Redwing Point</t>
+  </si>
+  <si>
+    <t>Nārang</t>
+  </si>
+  <si>
+    <t>icalderbank23@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9820</t>
   </si>
   <si>
     <t>YPRssp118</t>
   </si>
   <si>
-    <t>O'Kennavain</t>
-  </si>
-  <si>
-    <t>Ike</t>
-  </si>
-  <si>
-    <t>Gran</t>
-  </si>
-  <si>
-    <t>05492 Spohn Pass</t>
-  </si>
-  <si>
-    <t>797 Redwing Point</t>
-  </si>
-  <si>
-    <t>Nārang</t>
-  </si>
-  <si>
-    <t>icalderbank23@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp935</t>
+    <t>GRPA9820</t>
+  </si>
+  <si>
+    <t>Kempster</t>
+  </si>
+  <si>
+    <t>Ernestus</t>
+  </si>
+  <si>
+    <t>Bertrando</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>549 Corscot Center</t>
+  </si>
+  <si>
+    <t>3244 Valley Edge Way</t>
+  </si>
+  <si>
+    <t>Tomelilla</t>
+  </si>
+  <si>
+    <t>icalderbank24@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9821</t>
   </si>
   <si>
     <t>YPRssp119</t>
   </si>
   <si>
-    <t>Kempster</t>
-  </si>
-  <si>
-    <t>Ernestus</t>
-  </si>
-  <si>
-    <t>Bertrando</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>549 Corscot Center</t>
-  </si>
-  <si>
-    <t>3244 Valley Edge Way</t>
-  </si>
-  <si>
-    <t>Tomelilla</t>
-  </si>
-  <si>
-    <t>icalderbank24@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp936</t>
+    <t>GRPA9821</t>
+  </si>
+  <si>
+    <t>Braam</t>
+  </si>
+  <si>
+    <t>Eddi</t>
+  </si>
+  <si>
+    <t>Vannie</t>
+  </si>
+  <si>
+    <t>057 Fair Oaks Pass</t>
+  </si>
+  <si>
+    <t>2 Graedel Alley</t>
+  </si>
+  <si>
+    <t>Dabancheng</t>
+  </si>
+  <si>
+    <t>icalderbank25@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9822</t>
   </si>
   <si>
     <t>YPRssp120</t>
   </si>
   <si>
-    <t>Braam</t>
-  </si>
-  <si>
-    <t>Eddi</t>
-  </si>
-  <si>
-    <t>Vannie</t>
-  </si>
-  <si>
-    <t>057 Fair Oaks Pass</t>
-  </si>
-  <si>
-    <t>2 Graedel Alley</t>
-  </si>
-  <si>
-    <t>Dabancheng</t>
-  </si>
-  <si>
-    <t>icalderbank25@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp937</t>
+    <t>GRPA9822</t>
+  </si>
+  <si>
+    <t>Clapperton</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Arnaldo</t>
+  </si>
+  <si>
+    <t>38 Hazelcrest Court</t>
+  </si>
+  <si>
+    <t>7291 Warner Hill</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>icalderbank26@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9823</t>
   </si>
   <si>
     <t>YPRssp121</t>
   </si>
   <si>
-    <t>Clapperton</t>
-  </si>
-  <si>
-    <t>Kirk</t>
-  </si>
-  <si>
-    <t>Arnaldo</t>
-  </si>
-  <si>
-    <t>38 Hazelcrest Court</t>
-  </si>
-  <si>
-    <t>7291 Warner Hill</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>icalderbank26@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp938</t>
+    <t>GRPA9823</t>
+  </si>
+  <si>
+    <t>Bourgour</t>
+  </si>
+  <si>
+    <t>Roz</t>
+  </si>
+  <si>
+    <t>Therine</t>
+  </si>
+  <si>
+    <t>5 Melvin Drive</t>
+  </si>
+  <si>
+    <t>067 Stone Corner Junction</t>
+  </si>
+  <si>
+    <t>Baojia</t>
+  </si>
+  <si>
+    <t>icalderbank27@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9824</t>
   </si>
   <si>
     <t>YPRssp122</t>
   </si>
   <si>
-    <t>Bourgour</t>
-  </si>
-  <si>
-    <t>Roz</t>
-  </si>
-  <si>
-    <t>Therine</t>
-  </si>
-  <si>
-    <t>5 Melvin Drive</t>
-  </si>
-  <si>
-    <t>067 Stone Corner Junction</t>
-  </si>
-  <si>
-    <t>Baojia</t>
-  </si>
-  <si>
-    <t>icalderbank27@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp939</t>
+    <t>GRPA9824</t>
+  </si>
+  <si>
+    <t>Lyffe</t>
+  </si>
+  <si>
+    <t>Marji</t>
+  </si>
+  <si>
+    <t>Nomi</t>
+  </si>
+  <si>
+    <t>196 Melvin Place</t>
+  </si>
+  <si>
+    <t>5801 Anhalt Lane</t>
+  </si>
+  <si>
+    <t>Cibolek Kidul</t>
+  </si>
+  <si>
+    <t>icalderbank28@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9825</t>
   </si>
   <si>
     <t>YPRssp123</t>
   </si>
   <si>
-    <t>Lyffe</t>
-  </si>
-  <si>
-    <t>Marji</t>
-  </si>
-  <si>
-    <t>Nomi</t>
-  </si>
-  <si>
-    <t>196 Melvin Place</t>
-  </si>
-  <si>
-    <t>5801 Anhalt Lane</t>
-  </si>
-  <si>
-    <t>Cibolek Kidul</t>
-  </si>
-  <si>
-    <t>icalderbank28@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp940</t>
+    <t>GRPA9825</t>
+  </si>
+  <si>
+    <t>Jacmar</t>
+  </si>
+  <si>
+    <t>Chlo</t>
+  </si>
+  <si>
+    <t>Elisabetta</t>
+  </si>
+  <si>
+    <t>3 Farragut Crossing</t>
+  </si>
+  <si>
+    <t>715 Everett Avenue</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>icalderbank29@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9826</t>
   </si>
   <si>
     <t>YPRssp124</t>
   </si>
   <si>
-    <t>Jacmar</t>
-  </si>
-  <si>
-    <t>Chlo</t>
-  </si>
-  <si>
-    <t>Elisabetta</t>
-  </si>
-  <si>
-    <t>3 Farragut Crossing</t>
-  </si>
-  <si>
-    <t>715 Everett Avenue</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>icalderbank29@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp941</t>
+    <t>GRPA9826</t>
+  </si>
+  <si>
+    <t>Anselmi</t>
+  </si>
+  <si>
+    <t>Essa</t>
+  </si>
+  <si>
+    <t>Orelle</t>
+  </si>
+  <si>
+    <t>3 Eastwood Place</t>
+  </si>
+  <si>
+    <t>41987 Del Sol Trail</t>
+  </si>
+  <si>
+    <t>Landázuri</t>
+  </si>
+  <si>
+    <t>icalderbank30@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9827</t>
   </si>
   <si>
     <t>YPRssp125</t>
   </si>
   <si>
-    <t>Anselmi</t>
-  </si>
-  <si>
-    <t>Essa</t>
-  </si>
-  <si>
-    <t>Orelle</t>
-  </si>
-  <si>
-    <t>3 Eastwood Place</t>
-  </si>
-  <si>
-    <t>41987 Del Sol Trail</t>
-  </si>
-  <si>
-    <t>Landázuri</t>
-  </si>
-  <si>
-    <t>icalderbank30@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp942</t>
+    <t>GRPA9827</t>
+  </si>
+  <si>
+    <t>Stoll</t>
+  </si>
+  <si>
+    <t>Binny</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>1 Cody Pass</t>
+  </si>
+  <si>
+    <t>33 Marcy Plaza</t>
+  </si>
+  <si>
+    <t>Fushan</t>
+  </si>
+  <si>
+    <t>icalderbank31@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9828</t>
   </si>
   <si>
     <t>YPRssp126</t>
   </si>
   <si>
-    <t>Stoll</t>
-  </si>
-  <si>
-    <t>Binny</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>1 Cody Pass</t>
-  </si>
-  <si>
-    <t>33 Marcy Plaza</t>
-  </si>
-  <si>
-    <t>Fushan</t>
-  </si>
-  <si>
-    <t>icalderbank31@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp943</t>
+    <t>GRPA9828</t>
+  </si>
+  <si>
+    <t>Lardner</t>
+  </si>
+  <si>
+    <t>Tommi</t>
+  </si>
+  <si>
+    <t>Rosaline</t>
+  </si>
+  <si>
+    <t>859 Eastwood Place</t>
+  </si>
+  <si>
+    <t>1 Sugar Point</t>
+  </si>
+  <si>
+    <t>Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t>icalderbank32@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9829</t>
   </si>
   <si>
     <t>YPRssp127</t>
   </si>
   <si>
-    <t>Lardner</t>
-  </si>
-  <si>
-    <t>Tommi</t>
-  </si>
-  <si>
-    <t>Rosaline</t>
-  </si>
-  <si>
-    <t>859 Eastwood Place</t>
-  </si>
-  <si>
-    <t>1 Sugar Point</t>
-  </si>
-  <si>
-    <t>Foz do Iguaçu</t>
-  </si>
-  <si>
-    <t>icalderbank32@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp944</t>
+    <t>GRPA9829</t>
+  </si>
+  <si>
+    <t>Swatheridge</t>
+  </si>
+  <si>
+    <t>Fanchette</t>
+  </si>
+  <si>
+    <t>Xaviera</t>
+  </si>
+  <si>
+    <t>84 Anniversary Way</t>
+  </si>
+  <si>
+    <t>2 Gale Avenue</t>
+  </si>
+  <si>
+    <t>Dasht-e Qal‘ah</t>
+  </si>
+  <si>
+    <t>icalderbank33@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9830</t>
   </si>
   <si>
     <t>YPRssp128</t>
   </si>
   <si>
-    <t>Swatheridge</t>
-  </si>
-  <si>
-    <t>Fanchette</t>
-  </si>
-  <si>
-    <t>Xaviera</t>
-  </si>
-  <si>
-    <t>84 Anniversary Way</t>
-  </si>
-  <si>
-    <t>2 Gale Avenue</t>
-  </si>
-  <si>
-    <t>Dasht-e Qal‘ah</t>
-  </si>
-  <si>
-    <t>icalderbank33@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp945</t>
+    <t>GRPA9830</t>
+  </si>
+  <si>
+    <t>Byham</t>
+  </si>
+  <si>
+    <t>Wendye</t>
+  </si>
+  <si>
+    <t>Xever</t>
+  </si>
+  <si>
+    <t>121 Westerfield Court</t>
+  </si>
+  <si>
+    <t>9076 Hansons Point</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>icalderbank34@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9831</t>
   </si>
   <si>
     <t>YPRssp129</t>
   </si>
   <si>
-    <t>Byham</t>
-  </si>
-  <si>
-    <t>Wendye</t>
-  </si>
-  <si>
-    <t>Xever</t>
-  </si>
-  <si>
-    <t>121 Westerfield Court</t>
-  </si>
-  <si>
-    <t>9076 Hansons Point</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>icalderbank34@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp946</t>
+    <t>GRPA9831</t>
+  </si>
+  <si>
+    <t>Ainsley</t>
+  </si>
+  <si>
+    <t>Chauncey</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>59440 Helena Parkway</t>
+  </si>
+  <si>
+    <t>80079 Jay Park</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>icalderbank35@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9832</t>
   </si>
   <si>
     <t>YPRssp130</t>
   </si>
   <si>
-    <t>Ainsley</t>
-  </si>
-  <si>
-    <t>Chauncey</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>59440 Helena Parkway</t>
-  </si>
-  <si>
-    <t>80079 Jay Park</t>
-  </si>
-  <si>
-    <t>La Palma</t>
-  </si>
-  <si>
-    <t>icalderbank35@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp947</t>
+    <t>GRPA9832</t>
+  </si>
+  <si>
+    <t>Grinsted</t>
+  </si>
+  <si>
+    <t>Estele</t>
+  </si>
+  <si>
+    <t>Jeannine</t>
+  </si>
+  <si>
+    <t>55828 Warner Plaza</t>
+  </si>
+  <si>
+    <t>7 Pennsylvania Plaza</t>
+  </si>
+  <si>
+    <t>Jelcz</t>
+  </si>
+  <si>
+    <t>icalderbank36@admin.ch</t>
+  </si>
+  <si>
+    <t>IBPA9833</t>
   </si>
   <si>
     <t>YPRssp131</t>
   </si>
   <si>
-    <t>Grinsted</t>
-  </si>
-  <si>
-    <t>Estele</t>
-  </si>
-  <si>
-    <t>Jeannine</t>
-  </si>
-  <si>
-    <t>55828 Warner Plaza</t>
-  </si>
-  <si>
-    <t>7 Pennsylvania Plaza</t>
-  </si>
-  <si>
-    <t>Jelcz</t>
-  </si>
-  <si>
-    <t>icalderbank36@admin.ch</t>
-  </si>
-  <si>
-    <t>YPRssp948</t>
-  </si>
-  <si>
     <t>YPRssp132</t>
   </si>
   <si>
@@ -1169,7 +1277,7 @@
     <t>icalderbank37@admin.ch</t>
   </si>
   <si>
-    <t>YPRssp949</t>
+    <t>IBPA9834</t>
   </si>
   <si>
     <t>YPRssp133</t>
@@ -3484,11 +3592,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3817,8 +3922,8 @@
   <sheetPr/>
   <dimension ref="A1:U212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3908,19 +4013,19 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3929,10 +4034,10 @@
       <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1993</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J2">
@@ -3944,7 +4049,7 @@
       <c r="L2">
         <v>4189779011</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N2" t="s">
@@ -3973,19 +4078,19 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3994,10 +4099,10 @@
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1936</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J3">
@@ -4009,7 +4114,7 @@
       <c r="L3">
         <v>4189779012</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N3" t="s">
@@ -4025,10 +4130,10 @@
         <v>4189779074</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3">
         <v>8175658276</v>
@@ -4038,32 +4143,32 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="3">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2">
         <v>1985</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>52</v>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J4">
         <v>1236</v>
@@ -4074,26 +4179,26 @@
       <c r="L4">
         <v>4189779013</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>53</v>
+      <c r="M4" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="N4" t="s">
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q4">
         <v>4189779075</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T4">
         <v>8175658277</v>
@@ -4103,32 +4208,32 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="3">
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="3">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2">
         <v>1905</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>63</v>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J5">
         <v>1237</v>
@@ -4139,26 +4244,26 @@
       <c r="L5">
         <v>4189779014</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>64</v>
+      <c r="M5" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="N5" t="s">
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q5">
         <v>4189779076</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T5">
         <v>8175658278</v>
@@ -4168,32 +4273,32 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="3">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2">
         <v>2019</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>74</v>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J6">
         <v>1238</v>
@@ -4204,8 +4309,8 @@
       <c r="L6">
         <v>4189779015</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>75</v>
+      <c r="M6" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
@@ -4214,16 +4319,16 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q6">
         <v>4189779077</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="T6">
         <v>8175658279</v>
@@ -4233,32 +4338,32 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="3">
+        <v>87</v>
+      </c>
+      <c r="H7" s="2">
         <v>1938</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>84</v>
+      <c r="I7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J7">
         <v>1239</v>
@@ -4269,26 +4374,26 @@
       <c r="L7">
         <v>4189779016</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>85</v>
+      <c r="M7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="N7" t="s">
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>4189779078</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T7">
         <v>8175658280</v>
@@ -4298,32 +4403,32 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="3">
+        <v>98</v>
+      </c>
+      <c r="H8" s="2">
         <v>1941</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>94</v>
+      <c r="I8" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J8">
         <v>1240</v>
@@ -4334,26 +4439,26 @@
       <c r="L8">
         <v>4189779017</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>95</v>
+      <c r="M8" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>4189779079</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="T8">
         <v>8175658281</v>
@@ -4363,32 +4468,32 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>91</v>
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="3">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2">
         <v>1988</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>103</v>
+      <c r="I9" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J9">
         <v>1241</v>
@@ -4399,26 +4504,26 @@
       <c r="L9">
         <v>4189779018</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>104</v>
+      <c r="M9" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="N9" t="s">
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>4189779080</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="T9">
         <v>8175658282</v>
@@ -4428,32 +4533,32 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>91</v>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="3">
+        <v>118</v>
+      </c>
+      <c r="H10" s="2">
         <v>1987</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>112</v>
+      <c r="I10" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="J10">
         <v>1242</v>
@@ -4464,26 +4569,26 @@
       <c r="L10">
         <v>4189779019</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>113</v>
+      <c r="M10" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="N10" t="s">
         <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>4189779081</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="S10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="T10">
         <v>8175658283</v>
@@ -4493,32 +4598,32 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="3">
+        <v>129</v>
+      </c>
+      <c r="H11" s="2">
         <v>1905</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>122</v>
+      <c r="I11" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J11">
         <v>1243</v>
@@ -4529,26 +4634,26 @@
       <c r="L11">
         <v>4189779020</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>123</v>
+      <c r="M11" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="N11" t="s">
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>4189779082</v>
       </c>
       <c r="R11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="T11">
         <v>8175658284</v>
@@ -4558,32 +4663,32 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="3">
+        <v>139</v>
+      </c>
+      <c r="H12" s="2">
         <v>1996</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>131</v>
+      <c r="I12" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J12">
         <v>1244</v>
@@ -4594,26 +4699,26 @@
       <c r="L12">
         <v>4189779021</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>132</v>
+      <c r="M12" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="N12" t="s">
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>4189779083</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="S12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="T12">
         <v>8175658285</v>
@@ -4623,32 +4728,32 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="A13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="3">
+        <v>149</v>
+      </c>
+      <c r="H13" s="2">
         <v>1918</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>140</v>
+      <c r="I13" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="J13">
         <v>1245</v>
@@ -4659,26 +4764,26 @@
       <c r="L13">
         <v>4189779022</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>141</v>
+      <c r="M13" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="N13" t="s">
         <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>4189779084</v>
       </c>
       <c r="R13" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="S13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="T13">
         <v>8175658286</v>
@@ -4688,32 +4793,32 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="3">
+        <v>159</v>
+      </c>
+      <c r="H14" s="2">
         <v>1949</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>149</v>
+      <c r="I14" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="J14">
         <v>1246</v>
@@ -4724,26 +4829,26 @@
       <c r="L14">
         <v>4189779023</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>150</v>
+      <c r="M14" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="N14" t="s">
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>4189779085</v>
       </c>
       <c r="R14" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T14">
         <v>8175658287</v>
@@ -4753,32 +4858,32 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="A15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="3">
+        <v>169</v>
+      </c>
+      <c r="H15" s="2">
         <v>1945</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>158</v>
+      <c r="I15" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="J15">
         <v>1247</v>
@@ -4789,26 +4894,26 @@
       <c r="L15">
         <v>4189779024</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>159</v>
+      <c r="M15" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N15" t="s">
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>4189779086</v>
       </c>
       <c r="R15" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="S15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="T15">
         <v>8175658288</v>
@@ -4818,32 +4923,32 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="A16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="2">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="3">
+        <v>180</v>
+      </c>
+      <c r="H16" s="2">
         <v>1924</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>168</v>
+      <c r="I16" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="J16">
         <v>1248</v>
@@ -4854,26 +4959,26 @@
       <c r="L16">
         <v>4189779025</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>169</v>
+      <c r="M16" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="N16" t="s">
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>4189779087</v>
       </c>
       <c r="R16" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="S16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="T16">
         <v>8175658289</v>
@@ -4883,32 +4988,32 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="3">
+        <v>190</v>
+      </c>
+      <c r="H17" s="2">
         <v>1966</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>177</v>
+      <c r="I17" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="J17">
         <v>1249</v>
@@ -4919,26 +5024,26 @@
       <c r="L17">
         <v>4189779026</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>178</v>
+      <c r="M17" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="N17" t="s">
         <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>4189779088</v>
       </c>
       <c r="R17" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="S17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="T17">
         <v>8175658290</v>
@@ -4948,32 +5053,32 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="A18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="2">
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" s="3">
+        <v>201</v>
+      </c>
+      <c r="H18" s="2">
         <v>1933</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>187</v>
+      <c r="I18" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="J18">
         <v>1250</v>
@@ -4984,26 +5089,26 @@
       <c r="L18">
         <v>4189779027</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>188</v>
+      <c r="M18" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>4189779089</v>
       </c>
       <c r="R18" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="S18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="T18">
         <v>8175658291</v>
@@ -5013,32 +5118,32 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="3">
+        <v>211</v>
+      </c>
+      <c r="H19" s="2">
         <v>1974</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>196</v>
+      <c r="I19" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J19">
         <v>1251</v>
@@ -5049,26 +5154,26 @@
       <c r="L19">
         <v>4189779028</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>197</v>
+      <c r="M19" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="N19" t="s">
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>4189779090</v>
       </c>
       <c r="R19" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="S19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="T19">
         <v>8175658292</v>
@@ -5078,32 +5183,32 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="A20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="3">
+        <v>221</v>
+      </c>
+      <c r="H20" s="2">
         <v>2012</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>205</v>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="J20">
         <v>1252</v>
@@ -5114,26 +5219,26 @@
       <c r="L20">
         <v>4189779029</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>206</v>
+      <c r="M20" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="N20" t="s">
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>4189779091</v>
       </c>
       <c r="R20" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="S20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="T20">
         <v>8175658293</v>
@@ -5143,32 +5248,32 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" s="3">
+        <v>231</v>
+      </c>
+      <c r="H21" s="2">
         <v>1989</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>214</v>
+      <c r="I21" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="J21">
         <v>1253</v>
@@ -5179,26 +5284,26 @@
       <c r="L21">
         <v>4189779030</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>215</v>
+      <c r="M21" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="N21" t="s">
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>4189779092</v>
       </c>
       <c r="R21" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="S21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="T21">
         <v>8175658294</v>
@@ -5208,32 +5313,32 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="A22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="2">
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="3">
+        <v>242</v>
+      </c>
+      <c r="H22" s="2">
         <v>1993</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>224</v>
+      <c r="I22" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="J22">
         <v>1254</v>
@@ -5244,26 +5349,26 @@
       <c r="L22">
         <v>4189779031</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>225</v>
+      <c r="M22" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="N22" t="s">
         <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>4189779093</v>
       </c>
       <c r="R22" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="S22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="T22">
         <v>8175658295</v>
@@ -5273,32 +5378,32 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>71</v>
+      <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="3">
+        <v>251</v>
+      </c>
+      <c r="H23" s="2">
         <v>2019</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>232</v>
+      <c r="I23" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="J23">
         <v>1255</v>
@@ -5309,26 +5414,26 @@
       <c r="L23">
         <v>4189779032</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>233</v>
+      <c r="M23" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="N23" t="s">
         <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>4189779094</v>
       </c>
       <c r="R23" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="S23" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="T23">
         <v>8175658296</v>
@@ -5338,32 +5443,32 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H24" s="3">
+        <v>261</v>
+      </c>
+      <c r="H24" s="2">
         <v>1907</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>241</v>
+      <c r="I24" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="J24">
         <v>1256</v>
@@ -5374,26 +5479,26 @@
       <c r="L24">
         <v>4189779033</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>242</v>
+      <c r="M24" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="N24" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="Q24">
         <v>4189779095</v>
       </c>
       <c r="R24" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="S24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="T24">
         <v>8175658297</v>
@@ -5403,32 +5508,32 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="A25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H25" s="3">
+        <v>271</v>
+      </c>
+      <c r="H25" s="2">
         <v>2011</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>250</v>
+      <c r="I25" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J25">
         <v>1257</v>
@@ -5439,26 +5544,26 @@
       <c r="L25">
         <v>4189779034</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>251</v>
+      <c r="M25" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="N25" t="s">
         <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="Q25">
         <v>4189779096</v>
       </c>
       <c r="R25" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="S25" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="T25">
         <v>8175658298</v>
@@ -5468,32 +5573,32 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="A26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="2">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H26" s="3">
+        <v>282</v>
+      </c>
+      <c r="H26" s="2">
         <v>1926</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>260</v>
+      <c r="I26" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="J26">
         <v>1258</v>
@@ -5504,26 +5609,26 @@
       <c r="L26">
         <v>4189779035</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>261</v>
+      <c r="M26" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="N26" t="s">
         <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="P26" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="Q26">
         <v>4189779097</v>
       </c>
       <c r="R26" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="S26" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="T26">
         <v>8175658299</v>
@@ -5533,32 +5638,32 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="A27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="2">
         <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="3">
+        <v>292</v>
+      </c>
+      <c r="H27" s="2">
         <v>1953</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>269</v>
+      <c r="I27" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="J27">
         <v>1259</v>
@@ -5569,26 +5674,26 @@
       <c r="L27">
         <v>4189779036</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>270</v>
+      <c r="M27" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="N27" t="s">
         <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="Q27">
         <v>4189779098</v>
       </c>
       <c r="R27" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="S27" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="T27">
         <v>8175658300</v>
@@ -5598,32 +5703,32 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="A28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="2">
         <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28" s="3">
+        <v>302</v>
+      </c>
+      <c r="H28" s="2">
         <v>1926</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>278</v>
+      <c r="I28" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="J28">
         <v>1260</v>
@@ -5634,26 +5739,26 @@
       <c r="L28">
         <v>4189779037</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>279</v>
+      <c r="M28" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="N28" t="s">
         <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="Q28">
         <v>4189779099</v>
       </c>
       <c r="R28" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="S28" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="T28">
         <v>8175658301</v>
@@ -5663,32 +5768,32 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="A29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H29" s="3">
+        <v>312</v>
+      </c>
+      <c r="H29" s="2">
         <v>1913</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>287</v>
+      <c r="I29" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J29">
         <v>1261</v>
@@ -5699,26 +5804,26 @@
       <c r="L29">
         <v>4189779038</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>288</v>
+      <c r="M29" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="N29" t="s">
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="P29" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="Q29">
         <v>4189779100</v>
       </c>
       <c r="R29" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="S29" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="T29">
         <v>8175658302</v>
@@ -5728,32 +5833,32 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H30" s="3">
+        <v>322</v>
+      </c>
+      <c r="H30" s="2">
         <v>1941</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>296</v>
+      <c r="I30" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="J30">
         <v>1262</v>
@@ -5764,26 +5869,26 @@
       <c r="L30">
         <v>4189779039</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>297</v>
+      <c r="M30" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="N30" t="s">
         <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="P30" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="Q30">
         <v>4189779101</v>
       </c>
       <c r="R30" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="S30" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="T30">
         <v>8175658303</v>
@@ -5793,32 +5898,32 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31" s="3">
+        <v>332</v>
+      </c>
+      <c r="H31" s="2">
         <v>1985</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>305</v>
+      <c r="I31" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="J31">
         <v>1263</v>
@@ -5829,26 +5934,26 @@
       <c r="L31">
         <v>4189779040</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>306</v>
+      <c r="M31" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="N31" t="s">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="P31" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Q31">
         <v>4189779102</v>
       </c>
       <c r="R31" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="S31" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="T31">
         <v>8175658304</v>
@@ -5858,32 +5963,32 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="A32" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="2">
         <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H32" s="3">
+        <v>342</v>
+      </c>
+      <c r="H32" s="2">
         <v>2002</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>314</v>
+      <c r="I32" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="J32">
         <v>1264</v>
@@ -5894,58 +5999,58 @@
       <c r="L32">
         <v>4189779041</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>315</v>
+      <c r="M32" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="N32" t="s">
         <v>30</v>
       </c>
       <c r="O32" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="Q32">
         <v>4189779103</v>
       </c>
       <c r="R32" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="S32" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="A33" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="2">
         <v>27</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H33" s="3">
+        <v>352</v>
+      </c>
+      <c r="H33" s="2">
         <v>1957</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>323</v>
+      <c r="I33" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="J33">
         <v>1265</v>
@@ -5956,55 +6061,55 @@
       <c r="L33">
         <v>4189779042</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>324</v>
+      <c r="M33" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="N33" t="s">
         <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="P33" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="Q33">
         <v>4189779104</v>
       </c>
       <c r="R33" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="S33" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="A34" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="2">
         <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H34" s="3">
+        <v>362</v>
+      </c>
+      <c r="H34" s="2">
         <v>2009</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>332</v>
+      <c r="I34" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="J34">
         <v>1266</v>
@@ -6015,55 +6120,55 @@
       <c r="L34">
         <v>4189779043</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>333</v>
+      <c r="M34" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="N34" t="s">
         <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="Q34">
         <v>4189779105</v>
       </c>
       <c r="R34" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="S34" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>91</v>
+      <c r="A35" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H35" s="3">
+        <v>372</v>
+      </c>
+      <c r="H35" s="2">
         <v>1995</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>341</v>
+      <c r="I35" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="J35">
         <v>1267</v>
@@ -6074,55 +6179,55 @@
       <c r="L35">
         <v>4189779044</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>342</v>
+      <c r="M35" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="N35" t="s">
         <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="P35" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="Q35">
         <v>4189779106</v>
       </c>
       <c r="R35" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="S35" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="A36" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="2">
         <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H36" s="3">
+        <v>382</v>
+      </c>
+      <c r="H36" s="2">
         <v>1903</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>350</v>
+      <c r="I36" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="J36">
         <v>1268</v>
@@ -6133,55 +6238,55 @@
       <c r="L36">
         <v>4189779045</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>351</v>
+      <c r="M36" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="N36" t="s">
         <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="Q36">
         <v>4189779107</v>
       </c>
       <c r="R36" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="S36" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="A37" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E37" s="2">
         <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H37" s="3">
+        <v>393</v>
+      </c>
+      <c r="H37" s="2">
         <v>1932</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>360</v>
+      <c r="I37" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="J37">
         <v>1269</v>
@@ -6192,55 +6297,55 @@
       <c r="L37">
         <v>4189779046</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>361</v>
+      <c r="M37" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="N37" t="s">
         <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="P37" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="Q37">
         <v>4189779108</v>
       </c>
       <c r="R37" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="S37" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="A38" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2">
         <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H38" s="3">
+        <v>403</v>
+      </c>
+      <c r="H38" s="2">
         <v>1978</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>369</v>
+      <c r="I38" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="J38">
         <v>1270</v>
@@ -6251,55 +6356,55 @@
       <c r="L38">
         <v>4189779047</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>370</v>
+      <c r="M38" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="N38" t="s">
         <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="P38" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q38">
         <v>4189779109</v>
       </c>
       <c r="R38" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="S38" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>119</v>
+      <c r="A39" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H39" s="3">
+        <v>413</v>
+      </c>
+      <c r="H39" s="2">
         <v>1984</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>378</v>
+      <c r="I39" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="J39">
         <v>1271</v>
@@ -6310,55 +6415,55 @@
       <c r="L39">
         <v>4189779048</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>379</v>
+      <c r="M39" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="N39" t="s">
         <v>30</v>
       </c>
       <c r="O39" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="P39" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="Q39">
         <v>4189779110</v>
       </c>
       <c r="R39" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="S39" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="A40" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="2">
         <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H40" s="3">
+        <v>422</v>
+      </c>
+      <c r="H40" s="2">
         <v>2000</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>387</v>
+      <c r="I40" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="J40">
         <v>1272</v>
@@ -6369,55 +6474,55 @@
       <c r="L40">
         <v>4189779049</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>388</v>
+      <c r="M40" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="N40" t="s">
         <v>30</v>
       </c>
       <c r="O40" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="P40" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="Q40">
         <v>4189779111</v>
       </c>
       <c r="R40" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="S40" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H41" s="3">
+        <v>431</v>
+      </c>
+      <c r="H41" s="2">
         <v>1955</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>396</v>
+      <c r="I41" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="J41">
         <v>1273</v>
@@ -6428,55 +6533,55 @@
       <c r="L41">
         <v>4189779050</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>397</v>
+      <c r="M41" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="N41" t="s">
         <v>30</v>
       </c>
       <c r="O41" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="P41" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="Q41">
         <v>4189779112</v>
       </c>
       <c r="R41" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="S41" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="A42" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E42" s="2">
         <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H42" s="3">
+        <v>440</v>
+      </c>
+      <c r="H42" s="2">
         <v>1980</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>405</v>
+      <c r="I42" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="J42">
         <v>1274</v>
@@ -6487,55 +6592,55 @@
       <c r="L42">
         <v>4189779051</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>406</v>
+      <c r="M42" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="N42" t="s">
         <v>30</v>
       </c>
       <c r="O42" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="P42" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="Q42">
         <v>4189779113</v>
       </c>
       <c r="R42" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="S42" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="A43" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H43" s="3">
+        <v>449</v>
+      </c>
+      <c r="H43" s="2">
         <v>2021</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>414</v>
+      <c r="I43" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="J43">
         <v>1275</v>
@@ -6546,55 +6651,55 @@
       <c r="L43">
         <v>4189779052</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>415</v>
+      <c r="M43" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="N43" t="s">
         <v>30</v>
       </c>
       <c r="O43" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="P43" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="Q43">
         <v>4189779114</v>
       </c>
       <c r="R43" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="S43" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="A44" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2">
         <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H44" s="3">
+        <v>458</v>
+      </c>
+      <c r="H44" s="2">
         <v>1930</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>423</v>
+      <c r="I44" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="J44">
         <v>1276</v>
@@ -6605,55 +6710,55 @@
       <c r="L44">
         <v>4189779053</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>424</v>
+      <c r="M44" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="N44" t="s">
         <v>30</v>
       </c>
       <c r="O44" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="P44" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="Q44">
         <v>4189779115</v>
       </c>
       <c r="R44" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="S44" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="A45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="2">
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H45" s="3">
+        <v>467</v>
+      </c>
+      <c r="H45" s="2">
         <v>1971</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>432</v>
+      <c r="I45" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="J45">
         <v>1277</v>
@@ -6664,55 +6769,55 @@
       <c r="L45">
         <v>4189779054</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>433</v>
+      <c r="M45" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="N45" t="s">
         <v>30</v>
       </c>
       <c r="O45" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="P45" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="Q45">
         <v>4189779116</v>
       </c>
       <c r="R45" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="S45" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="A46" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="2">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H46" s="3">
+        <v>476</v>
+      </c>
+      <c r="H46" s="2">
         <v>1936</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>441</v>
+      <c r="I46" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="J46">
         <v>1278</v>
@@ -6723,52 +6828,52 @@
       <c r="L46">
         <v>4189779055</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>442</v>
+      <c r="M46" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="N46" t="s">
         <v>30</v>
       </c>
       <c r="O46" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="P46" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="Q46">
         <v>4189779117</v>
       </c>
       <c r="S46" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="A47" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D47" s="2">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H47" s="3">
+        <v>485</v>
+      </c>
+      <c r="H47" s="2">
         <v>1912</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>450</v>
+      <c r="I47" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="J47">
         <v>1279</v>
@@ -6779,52 +6884,52 @@
       <c r="L47">
         <v>4189779056</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>451</v>
+      <c r="M47" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="N47" t="s">
         <v>30</v>
       </c>
       <c r="O47" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="P47" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="Q47">
         <v>4189779118</v>
       </c>
       <c r="S47" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="A48" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H48" s="3">
+        <v>494</v>
+      </c>
+      <c r="H48" s="2">
         <v>2013</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>459</v>
+      <c r="I48" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="J48">
         <v>1280</v>
@@ -6835,52 +6940,52 @@
       <c r="L48">
         <v>4189779057</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>460</v>
+      <c r="M48" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="N48" t="s">
         <v>30</v>
       </c>
       <c r="O48" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="P48" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="Q48">
         <v>4189779119</v>
       </c>
       <c r="S48" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="A49" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H49" s="3">
+        <v>503</v>
+      </c>
+      <c r="H49" s="2">
         <v>1920</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>468</v>
+      <c r="I49" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="J49">
         <v>1281</v>
@@ -6891,52 +6996,52 @@
       <c r="L49">
         <v>4189779058</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>469</v>
+      <c r="M49" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="N49" t="s">
         <v>30</v>
       </c>
       <c r="O49" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="P49" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="Q49">
         <v>4189779120</v>
       </c>
       <c r="S49" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="A50" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2">
         <v>23</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H50" s="3">
+        <v>512</v>
+      </c>
+      <c r="H50" s="2">
         <v>1931</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>477</v>
+      <c r="I50" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="J50">
         <v>1282</v>
@@ -6947,52 +7052,52 @@
       <c r="L50">
         <v>4189779059</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>478</v>
+      <c r="M50" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="N50" t="s">
         <v>30</v>
       </c>
       <c r="O50" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="P50" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="Q50">
         <v>4189779121</v>
       </c>
       <c r="S50" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>81</v>
+      <c r="A51" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H51" s="3">
+        <v>521</v>
+      </c>
+      <c r="H51" s="2">
         <v>1951</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>486</v>
+      <c r="I51" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="J51">
         <v>1283</v>
@@ -7003,49 +7108,49 @@
       <c r="L51">
         <v>4189779060</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>487</v>
+      <c r="M51" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="N51" t="s">
         <v>30</v>
       </c>
       <c r="O51" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="P51" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="S51" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="A52" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H52" s="3">
+        <v>530</v>
+      </c>
+      <c r="H52" s="2">
         <v>1998</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>495</v>
+      <c r="I52" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="J52">
         <v>1284</v>
@@ -7056,49 +7161,49 @@
       <c r="L52">
         <v>4189779061</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>496</v>
+      <c r="M52" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="N52" t="s">
         <v>30</v>
       </c>
       <c r="O52" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="P52" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="S52" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="A53" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D53" s="2">
         <v>10</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>23</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H53" s="3">
+        <v>539</v>
+      </c>
+      <c r="H53" s="2">
         <v>1966</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>504</v>
+      <c r="I53" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="J53">
         <v>1285</v>
@@ -7109,46 +7214,46 @@
       <c r="L53">
         <v>4189779062</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>505</v>
+      <c r="M53" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="N53" t="s">
         <v>30</v>
       </c>
       <c r="O53" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="P53" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="A54" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D54" s="2">
         <v>10</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>20</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H54" s="3">
+        <v>547</v>
+      </c>
+      <c r="H54" s="2">
         <v>1945</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>512</v>
+      <c r="I54" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="J54">
         <v>1286</v>
@@ -7159,42 +7264,42 @@
       <c r="L54">
         <v>4189779063</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>513</v>
+      <c r="M54" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="N54" t="s">
         <v>30</v>
       </c>
       <c r="O54" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="P54" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="A55" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="2">
         <v>22</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H55" s="3">
+        <v>555</v>
+      </c>
+      <c r="H55" s="2">
         <v>1995</v>
       </c>
       <c r="J55">
@@ -7206,42 +7311,42 @@
       <c r="L55">
         <v>4189779064</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>520</v>
+      <c r="M55" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="N55" t="s">
         <v>30</v>
       </c>
       <c r="O55" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="P55" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="A56" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H56" s="3">
+        <v>561</v>
+      </c>
+      <c r="H56" s="2">
         <v>1996</v>
       </c>
       <c r="J56">
@@ -7253,42 +7358,42 @@
       <c r="L56">
         <v>4189779065</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>526</v>
+      <c r="M56" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="N56" t="s">
         <v>30</v>
       </c>
       <c r="O56" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="P56" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="A57" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H57" s="3">
+        <v>568</v>
+      </c>
+      <c r="H57" s="2">
         <v>2021</v>
       </c>
       <c r="J57">
@@ -7300,42 +7405,42 @@
       <c r="L57">
         <v>4189779066</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>533</v>
+      <c r="M57" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="N57" t="s">
         <v>30</v>
       </c>
       <c r="O57" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="P57" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="A58" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="2">
         <v>22</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H58" s="3">
+        <v>575</v>
+      </c>
+      <c r="H58" s="2">
         <v>1962</v>
       </c>
       <c r="J58">
@@ -7347,42 +7452,42 @@
       <c r="L58">
         <v>4189779067</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>540</v>
+      <c r="M58" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="N58" t="s">
         <v>30</v>
       </c>
       <c r="O58" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="P58" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="A59" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H59" s="3">
+        <v>583</v>
+      </c>
+      <c r="H59" s="2">
         <v>1909</v>
       </c>
       <c r="J59">
@@ -7398,35 +7503,35 @@
         <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="P59" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="A60" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H60" s="3">
+        <v>590</v>
+      </c>
+      <c r="H60" s="2">
         <v>1931</v>
       </c>
       <c r="J60">
@@ -7439,32 +7544,32 @@
         <v>30</v>
       </c>
       <c r="P60" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="A61" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="2">
         <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H61" s="3">
+        <v>596</v>
+      </c>
+      <c r="H61" s="2">
         <v>2022</v>
       </c>
       <c r="J61">
@@ -7477,32 +7582,32 @@
         <v>30</v>
       </c>
       <c r="P61" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="A62" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>60</v>
+      <c r="E62" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H62" s="3">
+        <v>602</v>
+      </c>
+      <c r="H62" s="2">
         <v>2013</v>
       </c>
       <c r="J62">
@@ -7515,32 +7620,32 @@
         <v>30</v>
       </c>
       <c r="P62" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="A63" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D63" s="2">
         <v>11</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H63" s="3">
+        <v>608</v>
+      </c>
+      <c r="H63" s="2">
         <v>1959</v>
       </c>
       <c r="J63">
@@ -7553,32 +7658,32 @@
         <v>30</v>
       </c>
       <c r="P63" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="A64" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D64" s="2">
         <v>12</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>357</v>
+      <c r="E64" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H64" s="3">
+        <v>614</v>
+      </c>
+      <c r="H64" s="2">
         <v>2012</v>
       </c>
       <c r="J64">
@@ -7591,32 +7696,32 @@
         <v>30</v>
       </c>
       <c r="P64" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="A65" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="2">
         <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H65" s="3">
+        <v>620</v>
+      </c>
+      <c r="H65" s="2">
         <v>2022</v>
       </c>
       <c r="J65">
@@ -7629,32 +7734,32 @@
         <v>30</v>
       </c>
       <c r="P65" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="A66" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E66" s="2">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H66" s="3">
+        <v>626</v>
+      </c>
+      <c r="H66" s="2">
         <v>1950</v>
       </c>
       <c r="J66">
@@ -7667,32 +7772,32 @@
         <v>30</v>
       </c>
       <c r="P66" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="A67" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="2">
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H67" s="3">
+        <v>632</v>
+      </c>
+      <c r="H67" s="2">
         <v>2008</v>
       </c>
       <c r="J67">
@@ -7705,32 +7810,32 @@
         <v>30</v>
       </c>
       <c r="P67" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="A68" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H68" s="3">
+        <v>638</v>
+      </c>
+      <c r="H68" s="2">
         <v>2000</v>
       </c>
       <c r="J68">
@@ -7743,32 +7848,32 @@
         <v>30</v>
       </c>
       <c r="P68" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="A69" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="2">
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="H69" s="3">
+        <v>644</v>
+      </c>
+      <c r="H69" s="2">
         <v>1929</v>
       </c>
       <c r="J69">
@@ -7781,24 +7886,24 @@
         <v>30</v>
       </c>
       <c r="P69" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>612</v>
+      <c r="A70" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="J70">
         <v>1302</v>
@@ -7811,20 +7916,20 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>617</v>
+      <c r="A71" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="J71">
         <v>1303</v>
@@ -7837,20 +7942,20 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>622</v>
+      <c r="A72" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="J72">
         <v>1304</v>
@@ -7863,20 +7968,20 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>627</v>
+      <c r="A73" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="J73">
         <v>1305</v>
@@ -7886,20 +7991,20 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>632</v>
+      <c r="A74" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="J74">
         <v>1306</v>
@@ -7909,1248 +8014,1248 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>637</v>
+      <c r="A75" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="J75">
         <v>1307</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>642</v>
+      <c r="A76" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="J76">
         <v>1308</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>647</v>
+      <c r="A77" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="J77">
         <v>1309</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>652</v>
+      <c r="A78" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="J78">
         <v>1310</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>657</v>
+      <c r="A79" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="J79">
         <v>1311</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>662</v>
+      <c r="A80" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="J80">
         <v>1312</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>667</v>
+      <c r="A81" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="J81">
         <v>1313</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>672</v>
+      <c r="A82" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="J82">
         <v>1314</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>677</v>
+      <c r="A83" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>682</v>
+      <c r="A84" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>687</v>
+      <c r="A85" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>691</v>
+      <c r="A86" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>695</v>
+      <c r="A87" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" s="1" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" s="1" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" s="1" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" s="1" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" s="1" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" s="1" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" s="1" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" s="1" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" s="1" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" s="1" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" s="1" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" s="1" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" s="1" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" s="1" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" s="1" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" s="1" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" s="1" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" s="1" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" s="1" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" s="1" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" s="1" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" s="1" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" s="1" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" s="1" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" s="1" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" s="1" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" s="1" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" s="1" t="s">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" s="1" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" s="1" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" s="1" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
     </row>
     <row r="119" spans="6:7">
       <c r="F119" s="1" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>761</v>
+        <v>797</v>
       </c>
     </row>
     <row r="120" spans="6:7">
       <c r="F120" s="1" t="s">
-        <v>762</v>
+        <v>798</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>763</v>
+        <v>799</v>
       </c>
     </row>
     <row r="121" spans="6:7">
       <c r="F121" s="1" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" s="1" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" s="1" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>769</v>
+        <v>805</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" s="1" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>771</v>
+        <v>807</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" s="1" t="s">
-        <v>772</v>
+        <v>808</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" s="1" t="s">
-        <v>774</v>
+        <v>810</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>775</v>
+        <v>811</v>
       </c>
     </row>
     <row r="127" spans="6:7">
       <c r="F127" s="1" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
     </row>
     <row r="128" spans="6:7">
       <c r="F128" s="1" t="s">
-        <v>778</v>
+        <v>814</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>779</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="6:7">
       <c r="F129" s="1" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>781</v>
+        <v>817</v>
       </c>
     </row>
     <row r="130" spans="6:7">
       <c r="F130" s="1" t="s">
-        <v>782</v>
+        <v>818</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>783</v>
+        <v>819</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131" s="1" t="s">
-        <v>784</v>
+        <v>820</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>785</v>
+        <v>821</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132" s="1" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
     </row>
     <row r="133" spans="6:7">
       <c r="F133" s="1" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
     </row>
     <row r="134" spans="6:7">
       <c r="F134" s="1" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
     </row>
     <row r="135" spans="6:7">
       <c r="F135" s="1" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
     </row>
     <row r="136" spans="6:7">
       <c r="F136" s="1" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
     </row>
     <row r="137" spans="6:7">
       <c r="F137" s="1" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" s="1" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" s="1" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" s="1" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
     </row>
     <row r="141" spans="6:7">
       <c r="F141" s="1" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
     </row>
     <row r="142" spans="6:7">
       <c r="F142" s="1" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
     </row>
     <row r="143" spans="6:7">
       <c r="F143" s="1" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
     </row>
     <row r="144" spans="6:7">
       <c r="F144" s="1" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
     </row>
     <row r="145" spans="6:7">
       <c r="F145" s="1" t="s">
-        <v>812</v>
+        <v>848</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
     </row>
     <row r="146" spans="6:7">
       <c r="F146" s="1" t="s">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>815</v>
+        <v>851</v>
       </c>
     </row>
     <row r="147" spans="6:7">
       <c r="F147" s="1" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
     </row>
     <row r="148" spans="6:7">
       <c r="F148" s="1" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
     </row>
     <row r="149" spans="6:7">
       <c r="F149" s="1" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
     </row>
     <row r="150" spans="6:7">
       <c r="F150" s="1" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>823</v>
+        <v>859</v>
       </c>
     </row>
     <row r="151" spans="6:7">
       <c r="F151" s="1" t="s">
-        <v>824</v>
+        <v>860</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
     </row>
     <row r="152" spans="6:7">
       <c r="F152" s="1" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
     </row>
     <row r="153" spans="6:7">
       <c r="F153" s="1" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
     </row>
     <row r="154" spans="6:7">
       <c r="F154" s="1" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
     </row>
     <row r="155" spans="6:7">
       <c r="F155" s="1" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>833</v>
+        <v>869</v>
       </c>
     </row>
     <row r="156" spans="6:7">
       <c r="F156" s="1" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
     </row>
     <row r="157" spans="6:7">
       <c r="F157" s="1" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
     </row>
     <row r="158" spans="6:7">
       <c r="F158" s="1" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
     </row>
     <row r="159" spans="6:7">
       <c r="F159" s="1" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
     </row>
     <row r="160" spans="6:7">
       <c r="F160" s="1" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
     </row>
     <row r="161" spans="6:7">
       <c r="F161" s="1" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" spans="6:7">
       <c r="F162" s="1" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
     </row>
     <row r="163" spans="6:7">
       <c r="F163" s="1" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="6:7">
       <c r="F164" s="1" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
     </row>
     <row r="165" spans="6:7">
       <c r="F165" s="1" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
     </row>
     <row r="166" spans="6:7">
       <c r="F166" s="1" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
     </row>
     <row r="167" spans="6:7">
       <c r="F167" s="1" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>857</v>
+        <v>893</v>
       </c>
     </row>
     <row r="168" spans="6:7">
       <c r="F168" s="1" t="s">
-        <v>858</v>
+        <v>894</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
     </row>
     <row r="169" spans="6:7">
       <c r="F169" s="1" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
     </row>
     <row r="170" spans="6:7">
       <c r="F170" s="1" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>863</v>
+        <v>899</v>
       </c>
     </row>
     <row r="171" spans="6:7">
       <c r="F171" s="1" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>865</v>
+        <v>901</v>
       </c>
     </row>
     <row r="172" spans="6:7">
       <c r="F172" s="1" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>867</v>
+        <v>903</v>
       </c>
     </row>
     <row r="173" spans="6:7">
       <c r="F173" s="1" t="s">
-        <v>868</v>
+        <v>904</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>869</v>
+        <v>905</v>
       </c>
     </row>
     <row r="174" spans="6:7">
       <c r="F174" s="1" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>871</v>
+        <v>907</v>
       </c>
     </row>
     <row r="175" spans="6:7">
       <c r="F175" s="1" t="s">
-        <v>872</v>
+        <v>908</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
     </row>
     <row r="176" spans="6:7">
       <c r="F176" s="1" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
     </row>
     <row r="177" spans="6:7">
       <c r="F177" s="1" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>877</v>
+        <v>913</v>
       </c>
     </row>
     <row r="178" spans="6:7">
       <c r="F178" s="1" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
     </row>
     <row r="179" spans="6:7">
       <c r="F179" s="1" t="s">
-        <v>880</v>
+        <v>916</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>881</v>
+        <v>917</v>
       </c>
     </row>
     <row r="180" spans="6:7">
       <c r="F180" s="1" t="s">
-        <v>882</v>
+        <v>918</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>883</v>
+        <v>919</v>
       </c>
     </row>
     <row r="181" spans="6:7">
       <c r="F181" s="1" t="s">
-        <v>884</v>
+        <v>920</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>885</v>
+        <v>921</v>
       </c>
     </row>
     <row r="182" spans="6:7">
       <c r="F182" s="1" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
     </row>
     <row r="183" spans="6:7">
       <c r="F183" s="1" t="s">
-        <v>888</v>
+        <v>924</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>889</v>
+        <v>925</v>
       </c>
     </row>
     <row r="184" spans="6:7">
       <c r="F184" s="1" t="s">
-        <v>890</v>
+        <v>926</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
     </row>
     <row r="185" spans="6:7">
       <c r="F185" s="1" t="s">
-        <v>892</v>
+        <v>928</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>893</v>
+        <v>929</v>
       </c>
     </row>
     <row r="186" spans="6:7">
       <c r="F186" s="1" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>895</v>
+        <v>931</v>
       </c>
     </row>
     <row r="187" spans="6:7">
       <c r="F187" s="1" t="s">
-        <v>896</v>
+        <v>932</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>897</v>
+        <v>933</v>
       </c>
     </row>
     <row r="188" spans="6:7">
       <c r="F188" s="1" t="s">
-        <v>898</v>
+        <v>934</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>899</v>
+        <v>935</v>
       </c>
     </row>
     <row r="189" spans="6:7">
       <c r="F189" s="1" t="s">
-        <v>900</v>
+        <v>936</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>901</v>
+        <v>937</v>
       </c>
     </row>
     <row r="190" spans="6:7">
       <c r="F190" s="1" t="s">
-        <v>902</v>
+        <v>938</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>903</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="6:7">
       <c r="F191" s="1" t="s">
-        <v>904</v>
+        <v>940</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>905</v>
+        <v>941</v>
       </c>
     </row>
     <row r="192" spans="6:7">
       <c r="F192" s="1" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>907</v>
+        <v>943</v>
       </c>
     </row>
     <row r="193" spans="6:7">
       <c r="F193" s="1" t="s">
-        <v>908</v>
+        <v>944</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
     </row>
     <row r="194" spans="6:7">
       <c r="F194" s="1" t="s">
-        <v>910</v>
+        <v>946</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>911</v>
+        <v>947</v>
       </c>
     </row>
     <row r="195" spans="6:7">
       <c r="F195" s="1" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>913</v>
+        <v>949</v>
       </c>
     </row>
     <row r="196" spans="6:7">
       <c r="F196" s="1" t="s">
-        <v>914</v>
+        <v>950</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>915</v>
+        <v>951</v>
       </c>
     </row>
     <row r="197" spans="6:7">
       <c r="F197" s="1" t="s">
-        <v>916</v>
+        <v>952</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>917</v>
+        <v>953</v>
       </c>
     </row>
     <row r="198" spans="6:7">
       <c r="F198" s="1" t="s">
-        <v>918</v>
+        <v>954</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>919</v>
+        <v>955</v>
       </c>
     </row>
     <row r="199" spans="6:7">
       <c r="F199" s="1" t="s">
-        <v>920</v>
+        <v>956</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>921</v>
+        <v>957</v>
       </c>
     </row>
     <row r="200" spans="6:7">
       <c r="F200" s="1" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>923</v>
+        <v>959</v>
       </c>
     </row>
     <row r="201" spans="6:7">
       <c r="F201" s="1" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
     </row>
     <row r="202" spans="6:7">
       <c r="F202" s="1" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
     </row>
     <row r="203" spans="6:7">
       <c r="F203" s="1" t="s">
-        <v>928</v>
+        <v>964</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
     </row>
     <row r="204" spans="6:7">
       <c r="F204" s="1" t="s">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
     </row>
     <row r="205" spans="6:7">
       <c r="F205" s="1" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="6:7">
       <c r="F206" s="1" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
     </row>
     <row r="207" spans="6:7">
       <c r="F207" s="1" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>937</v>
+        <v>973</v>
       </c>
     </row>
     <row r="208" spans="6:7">
       <c r="F208" s="1" t="s">
-        <v>938</v>
+        <v>974</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>939</v>
+        <v>975</v>
       </c>
     </row>
     <row r="209" spans="6:7">
       <c r="F209" s="1" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>941</v>
+        <v>977</v>
       </c>
     </row>
     <row r="210" spans="6:7">
       <c r="F210" s="1" t="s">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
     </row>
     <row r="211" spans="6:7">
       <c r="F211" s="1" t="s">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
     </row>
     <row r="212" spans="6:7">
       <c r="F212" s="1" t="s">
-        <v>946</v>
+        <v>982</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>947</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/test-data/input-data.xlsx
+++ b/src/resources/test-data/input-data.xlsx
@@ -3922,8 +3922,8 @@
   <sheetPr/>
   <dimension ref="A1:U212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3932,7 +3932,10 @@
     <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="18.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
-    <col min="5" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="25.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
     <col min="9" max="10" width="15.4444444444444" customWidth="1"/>
     <col min="11" max="11" width="19.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="22.4444444444444" customWidth="1"/>

--- a/src/resources/test-data/input-data.xlsx
+++ b/src/resources/test-data/input-data.xlsx
@@ -3923,7 +3923,7 @@
   <dimension ref="A1:U212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
